--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Cthrc1-Fzd5.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Cthrc1-Fzd5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Fzd5</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>M1</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>27.5226568623698</v>
+        <v>0.9744206666666667</v>
       </c>
       <c r="H2">
-        <v>27.5226568623698</v>
+        <v>2.923262</v>
       </c>
       <c r="I2">
-        <v>0.9709352128748133</v>
+        <v>0.0323957296480766</v>
       </c>
       <c r="J2">
-        <v>0.9709352128748133</v>
+        <v>0.03239572964807661</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.9429037253781</v>
+        <v>2.343367666666667</v>
       </c>
       <c r="N2">
-        <v>1.9429037253781</v>
+        <v>7.030103</v>
       </c>
       <c r="O2">
-        <v>0.06109746437435162</v>
+        <v>0.07041630712807322</v>
       </c>
       <c r="P2">
-        <v>0.06109746437435162</v>
+        <v>0.07041630712807322</v>
       </c>
       <c r="Q2">
-        <v>53.47387255020141</v>
+        <v>2.283425883998444</v>
       </c>
       <c r="R2">
-        <v>53.47387255020141</v>
+        <v>20.550832955986</v>
       </c>
       <c r="S2">
-        <v>0.05932167957842242</v>
+        <v>0.002281187648536989</v>
       </c>
       <c r="T2">
-        <v>0.05932167957842242</v>
+        <v>0.00228118764853699</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>27.5226568623698</v>
+        <v>0.9744206666666667</v>
       </c>
       <c r="H3">
-        <v>27.5226568623698</v>
+        <v>2.923262</v>
       </c>
       <c r="I3">
-        <v>0.9709352128748133</v>
+        <v>0.0323957296480766</v>
       </c>
       <c r="J3">
-        <v>0.9709352128748133</v>
+        <v>0.03239572964807661</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.83316913008036</v>
+        <v>4.842594333333333</v>
       </c>
       <c r="N3">
-        <v>4.83316913008036</v>
+        <v>14.527783</v>
       </c>
       <c r="O3">
-        <v>0.1519861096992003</v>
+        <v>0.1455160514174545</v>
       </c>
       <c r="P3">
-        <v>0.1519861096992003</v>
+        <v>0.1455160514174545</v>
       </c>
       <c r="Q3">
-        <v>133.0216555250001</v>
+        <v>4.718723998682889</v>
       </c>
       <c r="R3">
-        <v>133.0216555250001</v>
+        <v>42.468515988146</v>
       </c>
       <c r="S3">
-        <v>0.1475686657748077</v>
+        <v>0.004714098661175469</v>
       </c>
       <c r="T3">
-        <v>0.1475686657748077</v>
+        <v>0.00471409866117547</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>27.5226568623698</v>
+        <v>0.9744206666666667</v>
       </c>
       <c r="H4">
-        <v>27.5226568623698</v>
+        <v>2.923262</v>
       </c>
       <c r="I4">
-        <v>0.9709352128748133</v>
+        <v>0.0323957296480766</v>
       </c>
       <c r="J4">
-        <v>0.9709352128748133</v>
+        <v>0.03239572964807661</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.66430609672149</v>
+        <v>4.196962666666667</v>
       </c>
       <c r="N4">
-        <v>3.66430609672149</v>
+        <v>12.590888</v>
       </c>
       <c r="O4">
-        <v>0.1152294929886927</v>
+        <v>0.1261153409022843</v>
       </c>
       <c r="P4">
-        <v>0.1152294929886927</v>
+        <v>0.1261153409022843</v>
       </c>
       <c r="Q4">
-        <v>100.8514393387552</v>
+        <v>4.089607159628445</v>
       </c>
       <c r="R4">
-        <v>100.8514393387552</v>
+        <v>36.806464436656</v>
       </c>
       <c r="S4">
-        <v>0.1118803723044331</v>
+        <v>0.004085598488345419</v>
       </c>
       <c r="T4">
-        <v>0.1118803723044331</v>
+        <v>0.004085598488345421</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>27.5226568623698</v>
+        <v>0.9744206666666667</v>
       </c>
       <c r="H5">
-        <v>27.5226568623698</v>
+        <v>2.923262</v>
       </c>
       <c r="I5">
-        <v>0.9709352128748133</v>
+        <v>0.0323957296480766</v>
       </c>
       <c r="J5">
-        <v>0.9709352128748133</v>
+        <v>0.03239572964807661</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.88005197093159</v>
+        <v>5.056184333333333</v>
       </c>
       <c r="N5">
-        <v>4.88005197093159</v>
+        <v>15.168553</v>
       </c>
       <c r="O5">
-        <v>0.1534604095635021</v>
+        <v>0.151934258535964</v>
       </c>
       <c r="P5">
-        <v>0.1534604095635021</v>
+        <v>0.151934258535964</v>
       </c>
       <c r="Q5">
-        <v>134.3119958664816</v>
+        <v>4.926850508876223</v>
       </c>
       <c r="R5">
-        <v>134.3119958664816</v>
+        <v>44.341654579886</v>
       </c>
       <c r="S5">
-        <v>0.1490001154273949</v>
+        <v>0.004922021163812066</v>
       </c>
       <c r="T5">
-        <v>0.1490001154273949</v>
+        <v>0.004922021163812068</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>27.5226568623698</v>
+        <v>0.9744206666666667</v>
       </c>
       <c r="H6">
-        <v>27.5226568623698</v>
+        <v>2.923262</v>
       </c>
       <c r="I6">
-        <v>0.9709352128748133</v>
+        <v>0.0323957296480766</v>
       </c>
       <c r="J6">
-        <v>0.9709352128748133</v>
+        <v>0.03239572964807661</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.8072588437978</v>
+        <v>15.01164366666667</v>
       </c>
       <c r="N6">
-        <v>14.8072588437978</v>
+        <v>45.034931</v>
       </c>
       <c r="O6">
-        <v>0.4656360260540867</v>
+        <v>0.451087776777607</v>
       </c>
       <c r="P6">
-        <v>0.4656360260540867</v>
+        <v>0.4510877767776071</v>
       </c>
       <c r="Q6">
-        <v>407.5351042301374</v>
+        <v>14.62765582943578</v>
       </c>
       <c r="R6">
-        <v>407.5351042301374</v>
+        <v>131.648902464922</v>
       </c>
       <c r="S6">
-        <v>0.4521024140790068</v>
+        <v>0.01461331766403929</v>
       </c>
       <c r="T6">
-        <v>0.4521024140790068</v>
+        <v>0.01461331766403929</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>27.5226568623698</v>
+        <v>0.9744206666666667</v>
       </c>
       <c r="H7">
-        <v>27.5226568623698</v>
+        <v>2.923262</v>
       </c>
       <c r="I7">
-        <v>0.9709352128748133</v>
+        <v>0.0323957296480766</v>
       </c>
       <c r="J7">
-        <v>0.9709352128748133</v>
+        <v>0.03239572964807661</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.67238156622638</v>
+        <v>1.828011333333333</v>
       </c>
       <c r="N7">
-        <v>1.67238156622638</v>
+        <v>5.484034</v>
       </c>
       <c r="O7">
-        <v>0.05259049732016657</v>
+        <v>0.05493026523861683</v>
       </c>
       <c r="P7">
-        <v>0.05259049732016657</v>
+        <v>0.05493026523861684</v>
       </c>
       <c r="Q7">
-        <v>46.02838399020123</v>
+        <v>1.781252022100889</v>
       </c>
       <c r="R7">
-        <v>46.02838399020123</v>
+        <v>16.031268198908</v>
       </c>
       <c r="S7">
-        <v>0.05106196571074822</v>
+        <v>0.001779506022167371</v>
       </c>
       <c r="T7">
-        <v>0.05106196571074822</v>
+        <v>0.001779506022167372</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.823886241035398</v>
+        <v>28.021538</v>
       </c>
       <c r="H8">
-        <v>0.823886241035398</v>
+        <v>84.06461399999999</v>
       </c>
       <c r="I8">
-        <v>0.02906478712518658</v>
+        <v>0.9316080830640275</v>
       </c>
       <c r="J8">
-        <v>0.02906478712518658</v>
+        <v>0.9316080830640276</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.9429037253781</v>
+        <v>2.343367666666667</v>
       </c>
       <c r="N8">
-        <v>1.9429037253781</v>
+        <v>7.030103</v>
       </c>
       <c r="O8">
-        <v>0.06109746437435162</v>
+        <v>0.07041630712807322</v>
       </c>
       <c r="P8">
-        <v>0.06109746437435162</v>
+        <v>0.07041630712807322</v>
       </c>
       <c r="Q8">
-        <v>1.600731646995434</v>
+        <v>65.66476611947132</v>
       </c>
       <c r="R8">
-        <v>1.600731646995434</v>
+        <v>590.9828950752419</v>
       </c>
       <c r="S8">
-        <v>0.001775784795929201</v>
+        <v>0.06560040090003211</v>
       </c>
       <c r="T8">
-        <v>0.001775784795929201</v>
+        <v>0.06560040090003212</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.823886241035398</v>
+        <v>28.021538</v>
       </c>
       <c r="H9">
-        <v>0.823886241035398</v>
+        <v>84.06461399999999</v>
       </c>
       <c r="I9">
-        <v>0.02906478712518658</v>
+        <v>0.9316080830640275</v>
       </c>
       <c r="J9">
-        <v>0.02906478712518658</v>
+        <v>0.9316080830640276</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.83316913008036</v>
+        <v>4.842594333333333</v>
       </c>
       <c r="N9">
-        <v>4.83316913008036</v>
+        <v>14.527783</v>
       </c>
       <c r="O9">
-        <v>0.1519861096992003</v>
+        <v>0.1455160514174545</v>
       </c>
       <c r="P9">
-        <v>0.1519861096992003</v>
+        <v>0.1455160514174545</v>
       </c>
       <c r="Q9">
-        <v>3.981981546870232</v>
+        <v>135.6969411300846</v>
       </c>
       <c r="R9">
-        <v>3.981981546870232</v>
+        <v>1221.272470170762</v>
       </c>
       <c r="S9">
-        <v>0.004417443924392511</v>
+        <v>0.1355639297160612</v>
       </c>
       <c r="T9">
-        <v>0.004417443924392511</v>
+        <v>0.1355639297160612</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.823886241035398</v>
+        <v>28.021538</v>
       </c>
       <c r="H10">
-        <v>0.823886241035398</v>
+        <v>84.06461399999999</v>
       </c>
       <c r="I10">
-        <v>0.02906478712518658</v>
+        <v>0.9316080830640275</v>
       </c>
       <c r="J10">
-        <v>0.02906478712518658</v>
+        <v>0.9316080830640276</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.66430609672149</v>
+        <v>4.196962666666667</v>
       </c>
       <c r="N10">
-        <v>3.66430609672149</v>
+        <v>12.590888</v>
       </c>
       <c r="O10">
-        <v>0.1152294929886927</v>
+        <v>0.1261153409022843</v>
       </c>
       <c r="P10">
-        <v>0.1152294929886927</v>
+        <v>0.1261153409022843</v>
       </c>
       <c r="Q10">
-        <v>3.01897137603096</v>
+        <v>117.6053488485813</v>
       </c>
       <c r="R10">
-        <v>3.01897137603096</v>
+        <v>1058.448139637232</v>
       </c>
       <c r="S10">
-        <v>0.003349120684259533</v>
+        <v>0.1174900709829434</v>
       </c>
       <c r="T10">
-        <v>0.003349120684259533</v>
+        <v>0.1174900709829434</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.823886241035398</v>
+        <v>28.021538</v>
       </c>
       <c r="H11">
-        <v>0.823886241035398</v>
+        <v>84.06461399999999</v>
       </c>
       <c r="I11">
-        <v>0.02906478712518658</v>
+        <v>0.9316080830640275</v>
       </c>
       <c r="J11">
-        <v>0.02906478712518658</v>
+        <v>0.9316080830640276</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.88005197093159</v>
+        <v>5.056184333333333</v>
       </c>
       <c r="N11">
-        <v>4.88005197093159</v>
+        <v>15.168553</v>
       </c>
       <c r="O11">
-        <v>0.1534604095635021</v>
+        <v>0.151934258535964</v>
       </c>
       <c r="P11">
-        <v>0.1534604095635021</v>
+        <v>0.151934258535964</v>
       </c>
       <c r="Q11">
-        <v>4.020607674388213</v>
+        <v>141.6820614315046</v>
       </c>
       <c r="R11">
-        <v>4.020607674388213</v>
+        <v>1275.138552883542</v>
       </c>
       <c r="S11">
-        <v>0.004460294136107136</v>
+        <v>0.1415431833464438</v>
       </c>
       <c r="T11">
-        <v>0.004460294136107136</v>
+        <v>0.1415431833464438</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.823886241035398</v>
+        <v>28.021538</v>
       </c>
       <c r="H12">
-        <v>0.823886241035398</v>
+        <v>84.06461399999999</v>
       </c>
       <c r="I12">
-        <v>0.02906478712518658</v>
+        <v>0.9316080830640275</v>
       </c>
       <c r="J12">
-        <v>0.02906478712518658</v>
+        <v>0.9316080830640276</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>14.8072588437978</v>
+        <v>15.01164366666667</v>
       </c>
       <c r="N12">
-        <v>14.8072588437978</v>
+        <v>45.034931</v>
       </c>
       <c r="O12">
-        <v>0.4656360260540867</v>
+        <v>0.451087776777607</v>
       </c>
       <c r="P12">
-        <v>0.4656360260540867</v>
+        <v>0.4510877767776071</v>
       </c>
       <c r="Q12">
-        <v>12.19949682885472</v>
+        <v>420.6493434479593</v>
       </c>
       <c r="R12">
-        <v>12.19949682885472</v>
+        <v>3785.844091031634</v>
       </c>
       <c r="S12">
-        <v>0.01353361197507987</v>
+        <v>0.4202370190174005</v>
       </c>
       <c r="T12">
-        <v>0.01353361197507987</v>
+        <v>0.4202370190174006</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,433 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>28.021538</v>
+      </c>
+      <c r="H13">
+        <v>84.06461399999999</v>
+      </c>
+      <c r="I13">
+        <v>0.9316080830640275</v>
+      </c>
+      <c r="J13">
+        <v>0.9316080830640276</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.828011333333333</v>
+      </c>
+      <c r="N13">
+        <v>5.484034</v>
+      </c>
+      <c r="O13">
+        <v>0.05493026523861683</v>
+      </c>
+      <c r="P13">
+        <v>0.05493026523861684</v>
+      </c>
+      <c r="Q13">
+        <v>51.22368904143066</v>
+      </c>
+      <c r="R13">
+        <v>461.013201372876</v>
+      </c>
+      <c r="S13">
+        <v>0.05117347910114642</v>
+      </c>
+      <c r="T13">
+        <v>0.05117347910114643</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.082717666666667</v>
+      </c>
+      <c r="H14">
+        <v>3.248153</v>
+      </c>
+      <c r="I14">
+        <v>0.03599618728789584</v>
+      </c>
+      <c r="J14">
+        <v>0.03599618728789584</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>2.343367666666667</v>
+      </c>
+      <c r="N14">
+        <v>7.030103</v>
+      </c>
+      <c r="O14">
+        <v>0.07041630712807322</v>
+      </c>
+      <c r="P14">
+        <v>0.07041630712807322</v>
+      </c>
+      <c r="Q14">
+        <v>2.537205572195445</v>
+      </c>
+      <c r="R14">
+        <v>22.834850149759</v>
+      </c>
+      <c r="S14">
+        <v>0.002534718579504118</v>
+      </c>
+      <c r="T14">
+        <v>0.002534718579504118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
         <v>21</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.823886241035398</v>
-      </c>
-      <c r="H13">
-        <v>0.823886241035398</v>
-      </c>
-      <c r="I13">
-        <v>0.02906478712518658</v>
-      </c>
-      <c r="J13">
-        <v>0.02906478712518658</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1.67238156622638</v>
-      </c>
-      <c r="N13">
-        <v>1.67238156622638</v>
-      </c>
-      <c r="O13">
-        <v>0.05259049732016657</v>
-      </c>
-      <c r="P13">
-        <v>0.05259049732016657</v>
-      </c>
-      <c r="Q13">
-        <v>1.377852162175144</v>
-      </c>
-      <c r="R13">
-        <v>1.377852162175144</v>
-      </c>
-      <c r="S13">
-        <v>0.001528531609418337</v>
-      </c>
-      <c r="T13">
-        <v>0.001528531609418337</v>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.082717666666667</v>
+      </c>
+      <c r="H15">
+        <v>3.248153</v>
+      </c>
+      <c r="I15">
+        <v>0.03599618728789584</v>
+      </c>
+      <c r="J15">
+        <v>0.03599618728789584</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>4.842594333333333</v>
+      </c>
+      <c r="N15">
+        <v>14.527783</v>
+      </c>
+      <c r="O15">
+        <v>0.1455160514174545</v>
+      </c>
+      <c r="P15">
+        <v>0.1455160514174545</v>
+      </c>
+      <c r="Q15">
+        <v>5.24316243719989</v>
+      </c>
+      <c r="R15">
+        <v>47.18846193479899</v>
+      </c>
+      <c r="S15">
+        <v>0.005238023040217771</v>
+      </c>
+      <c r="T15">
+        <v>0.005238023040217771</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.082717666666667</v>
+      </c>
+      <c r="H16">
+        <v>3.248153</v>
+      </c>
+      <c r="I16">
+        <v>0.03599618728789584</v>
+      </c>
+      <c r="J16">
+        <v>0.03599618728789584</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>4.196962666666667</v>
+      </c>
+      <c r="N16">
+        <v>12.590888</v>
+      </c>
+      <c r="O16">
+        <v>0.1261153409022843</v>
+      </c>
+      <c r="P16">
+        <v>0.1261153409022843</v>
+      </c>
+      <c r="Q16">
+        <v>4.544125625540445</v>
+      </c>
+      <c r="R16">
+        <v>40.89713062986399</v>
+      </c>
+      <c r="S16">
+        <v>0.004539671430995456</v>
+      </c>
+      <c r="T16">
+        <v>0.004539671430995456</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.082717666666667</v>
+      </c>
+      <c r="H17">
+        <v>3.248153</v>
+      </c>
+      <c r="I17">
+        <v>0.03599618728789584</v>
+      </c>
+      <c r="J17">
+        <v>0.03599618728789584</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>5.056184333333333</v>
+      </c>
+      <c r="N17">
+        <v>15.168553</v>
+      </c>
+      <c r="O17">
+        <v>0.151934258535964</v>
+      </c>
+      <c r="P17">
+        <v>0.151934258535964</v>
+      </c>
+      <c r="Q17">
+        <v>5.474420103623222</v>
+      </c>
+      <c r="R17">
+        <v>49.269780932609</v>
+      </c>
+      <c r="S17">
+        <v>0.005469054025708148</v>
+      </c>
+      <c r="T17">
+        <v>0.005469054025708148</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.082717666666667</v>
+      </c>
+      <c r="H18">
+        <v>3.248153</v>
+      </c>
+      <c r="I18">
+        <v>0.03599618728789584</v>
+      </c>
+      <c r="J18">
+        <v>0.03599618728789584</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>15.01164366666667</v>
+      </c>
+      <c r="N18">
+        <v>45.034931</v>
+      </c>
+      <c r="O18">
+        <v>0.451087776777607</v>
+      </c>
+      <c r="P18">
+        <v>0.4510877767776071</v>
+      </c>
+      <c r="Q18">
+        <v>16.25337180360478</v>
+      </c>
+      <c r="R18">
+        <v>146.280346232443</v>
+      </c>
+      <c r="S18">
+        <v>0.0162374400961673</v>
+      </c>
+      <c r="T18">
+        <v>0.0162374400961673</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.082717666666667</v>
+      </c>
+      <c r="H19">
+        <v>3.248153</v>
+      </c>
+      <c r="I19">
+        <v>0.03599618728789584</v>
+      </c>
+      <c r="J19">
+        <v>0.03599618728789584</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.828011333333333</v>
+      </c>
+      <c r="N19">
+        <v>5.484034</v>
+      </c>
+      <c r="O19">
+        <v>0.05493026523861683</v>
+      </c>
+      <c r="P19">
+        <v>0.05493026523861684</v>
+      </c>
+      <c r="Q19">
+        <v>1.979220165466889</v>
+      </c>
+      <c r="R19">
+        <v>17.812981489202</v>
+      </c>
+      <c r="S19">
+        <v>0.001977280115303046</v>
+      </c>
+      <c r="T19">
+        <v>0.001977280115303046</v>
       </c>
     </row>
   </sheetData>
